--- a/Result/Orbit/Service/CAN.xlsx
+++ b/Result/Orbit/Service/CAN.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>62.8229287844789</v>
+        <v>62.97937020538861</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>63.58332828303771</v>
+        <v>62.84866400653875</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>62.57092597902406</v>
+        <v>63.16085533216083</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>61.30066732184333</v>
+        <v>62.52370840002402</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>62.54146880610904</v>
+        <v>61.58558638582664</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>63.01576543934884</v>
+        <v>62.08491582461879</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>62.92361298179227</v>
+        <v>62.78828931534564</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>62.40435898434108</v>
+        <v>62.93051667979751</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>62.03346574533985</v>
+        <v>62.75663075009955</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>62.72319310638832</v>
+        <v>62.31530121873325</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>63.09642128215205</v>
+        <v>62.60414080489089</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>62.73445420750253</v>
+        <v>62.981430750633</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>66.86904248237485</v>
+        <v>62.97737754999869</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>65.73341912528225</v>
+        <v>65.51425238610554</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>64.79820615164174</v>
+        <v>65.51256076876678</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>65.16324112510638</v>
+        <v>65.20897009321303</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>65.16744127608951</v>
+        <v>65.46054114477738</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>64.9019974464847</v>
+        <v>65.25430799611564</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>67.00099776833487</v>
+        <v>65.03738685308598</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>67.95885329935381</v>
+        <v>66.55215655766165</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -704,50 +704,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>67.55618320080255</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>67.78954304931939</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65.38186665662404</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.91498111559773</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>67.55618320080255</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>67.76034488699119</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64.87461018743508</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.50648362196807</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>67.55618320080255</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>67.81802843574854</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.45887601143943</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.71946789788669</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>67.55618320080255</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>67.97724069726989</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.3272649456087</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.29968603461177</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>67.55618320080255</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>68.01309672467374</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.17640302981515</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.06217380645485</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>62.8229287844789</v>
+        <v>62.60166139355724</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -805,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>63.58332828303771</v>
+        <v>62.97828251279516</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -815,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>62.57092597902406</v>
+        <v>63.09783596772446</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -825,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>61.30066732184333</v>
+        <v>62.92485971454947</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>62.54146880610904</v>
+        <v>61.81846369652752</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>63.01576543934884</v>
+        <v>62.32344578865231</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>62.92361298179227</v>
+        <v>62.61111037034949</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>62.40435898434108</v>
+        <v>62.84912048051616</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>62.03346574533985</v>
+        <v>62.48906075642311</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>62.72319310638832</v>
+        <v>62.50657978803562</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>63.09642128215205</v>
+        <v>62.91994791300433</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>62.73445420750253</v>
+        <v>63.07575729786238</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>66.86904248237485</v>
+        <v>62.83940272468752</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>65.73341912528225</v>
+        <v>65.29149671387617</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>64.79820615164174</v>
+        <v>65.69640767131233</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>65.16324112510638</v>
+        <v>65.46015483492113</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>65.16744127608951</v>
+        <v>65.44345390267492</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>64.9019974464847</v>
+        <v>65.56357359852764</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>67.00099776833487</v>
+        <v>65.03012145320317</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>67.95885329935381</v>
+        <v>66.13905353573136</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>67.11667206224678</v>
+        <v>67.22248062734519</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>66.86584615274512</v>
+        <v>67.29579527264215</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>67.53994494930434</v>
+        <v>67.1458596053242</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>67.85737585467527</v>
+        <v>67.3960727849209</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>68.17480676004618</v>
+        <v>67.82896808003706</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1086,50 +1106,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>68.03672014173696</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>68.32943147461134</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66.82256436095595</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.00372792428405</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>68.03672014173696</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>68.53726224464484</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66.43058092062806</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.79437506690007</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>68.03672014173696</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>68.486399749703</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.63209727608272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.22768729170808</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>68.03672014173696</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>68.49042473218259</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.62482009258562</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.37111547756541</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>68.03672014173696</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>68.76365417141662</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64.82599756824771</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.34567230160872</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
